--- a/data/pca/factorExposure/factorExposure_2014-10-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.01668650469988307</v>
+        <v>0.01689728605562695</v>
       </c>
       <c r="C2">
-        <v>0.09810660724173471</v>
+        <v>0.08012389600054995</v>
       </c>
       <c r="D2">
-        <v>-0.08535188329085865</v>
+        <v>-0.01768349525987099</v>
       </c>
       <c r="E2">
-        <v>-0.1210088621598092</v>
+        <v>0.1268285670957167</v>
       </c>
       <c r="F2">
-        <v>0.1515054244681972</v>
+        <v>-0.08629966422210195</v>
       </c>
       <c r="G2">
-        <v>-0.1435057321537513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04702062960724448</v>
+      </c>
+      <c r="H2">
+        <v>0.05438154456677445</v>
+      </c>
+      <c r="I2">
+        <v>0.04402542294888865</v>
+      </c>
+      <c r="J2">
+        <v>-0.2014159732685732</v>
+      </c>
+      <c r="K2">
+        <v>-0.1131938497613658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.04218047391759136</v>
+        <v>0.02251254697049791</v>
       </c>
       <c r="C4">
-        <v>0.1605603714000933</v>
+        <v>0.154242203662976</v>
       </c>
       <c r="D4">
-        <v>-0.002551498634161601</v>
+        <v>-0.05201701215369513</v>
       </c>
       <c r="E4">
-        <v>-0.08110457044781479</v>
+        <v>0.07187498713700678</v>
       </c>
       <c r="F4">
-        <v>-0.0314938738932355</v>
+        <v>0.02191096852668155</v>
       </c>
       <c r="G4">
-        <v>0.0315977241476158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01254925633450895</v>
+      </c>
+      <c r="H4">
+        <v>0.1158781031561179</v>
+      </c>
+      <c r="I4">
+        <v>-0.009825704914766791</v>
+      </c>
+      <c r="J4">
+        <v>-0.1533458441292176</v>
+      </c>
+      <c r="K4">
+        <v>0.06625535265655927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02812460994037151</v>
+        <v>0.03848270943464401</v>
       </c>
       <c r="C6">
-        <v>0.07281672763518485</v>
+        <v>0.07144312005764261</v>
       </c>
       <c r="D6">
-        <v>-0.03099226383326368</v>
+        <v>-0.02266608158765342</v>
       </c>
       <c r="E6">
-        <v>-0.1010327965137154</v>
+        <v>0.07874119849109711</v>
       </c>
       <c r="F6">
-        <v>-0.02158635050158777</v>
+        <v>-0.05541829603087308</v>
       </c>
       <c r="G6">
-        <v>-0.02477779511471331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.06045793785567301</v>
+      </c>
+      <c r="H6">
+        <v>0.04188006758503224</v>
+      </c>
+      <c r="I6">
+        <v>0.05835323509792516</v>
+      </c>
+      <c r="J6">
+        <v>-0.04619872375649788</v>
+      </c>
+      <c r="K6">
+        <v>-0.04131219051100233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.007175403239465367</v>
+        <v>0.01395341714099903</v>
       </c>
       <c r="C7">
-        <v>0.05052399534602312</v>
+        <v>0.06561096587286402</v>
       </c>
       <c r="D7">
-        <v>-0.01015207195924947</v>
+        <v>-0.01508750901407918</v>
       </c>
       <c r="E7">
-        <v>-0.07358176552704854</v>
+        <v>0.02327686217778204</v>
       </c>
       <c r="F7">
-        <v>-0.001379228579265263</v>
+        <v>0.0143908584444058</v>
       </c>
       <c r="G7">
-        <v>0.01531483632231128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.0620962375821165</v>
+      </c>
+      <c r="H7">
+        <v>0.09499144079990234</v>
+      </c>
+      <c r="I7">
+        <v>0.01838618603443588</v>
+      </c>
+      <c r="J7">
+        <v>-0.04617023104356889</v>
+      </c>
+      <c r="K7">
+        <v>-0.005892891074100261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01428140935169822</v>
+        <v>-0.00775550923608944</v>
       </c>
       <c r="C8">
-        <v>0.08349369679634397</v>
+        <v>0.07368538224563236</v>
       </c>
       <c r="D8">
-        <v>-0.03176721562929843</v>
+        <v>-0.03911053483699055</v>
       </c>
       <c r="E8">
-        <v>-0.1304251156696747</v>
+        <v>0.0846492835656977</v>
       </c>
       <c r="F8">
-        <v>0.08624685133802869</v>
+        <v>-0.01042191044630288</v>
       </c>
       <c r="G8">
-        <v>0.03644931289947209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.03268612870266094</v>
+      </c>
+      <c r="H8">
+        <v>0.04216421734804601</v>
+      </c>
+      <c r="I8">
+        <v>-0.004171127303982942</v>
+      </c>
+      <c r="J8">
+        <v>0.004082306398858862</v>
+      </c>
+      <c r="K8">
+        <v>0.009726015324009138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.02356487895623933</v>
+        <v>0.01439607025228117</v>
       </c>
       <c r="C9">
-        <v>0.134008295997965</v>
+        <v>0.1183330135313257</v>
       </c>
       <c r="D9">
-        <v>0.00310875343368539</v>
+        <v>-0.03488540379603854</v>
       </c>
       <c r="E9">
-        <v>-0.06289227903864018</v>
+        <v>0.03244718068995858</v>
       </c>
       <c r="F9">
-        <v>-0.03721910162614209</v>
+        <v>-0.001436835955072233</v>
       </c>
       <c r="G9">
-        <v>-0.002593990897982558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0005809663274233405</v>
+      </c>
+      <c r="H9">
+        <v>0.09793504792516131</v>
+      </c>
+      <c r="I9">
+        <v>0.02415196088214393</v>
+      </c>
+      <c r="J9">
+        <v>-0.06638530327749227</v>
+      </c>
+      <c r="K9">
+        <v>0.05597301497213705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2617629100522694</v>
+        <v>0.2474983641136611</v>
       </c>
       <c r="C10">
-        <v>-0.1158370364052112</v>
+        <v>-0.09614963283992536</v>
       </c>
       <c r="D10">
-        <v>-0.03752922814165349</v>
+        <v>0.002921881431679413</v>
       </c>
       <c r="E10">
-        <v>-0.003235122291041823</v>
+        <v>0.01701766398291147</v>
       </c>
       <c r="F10">
-        <v>-0.0009596246186824905</v>
+        <v>-0.01128620539633187</v>
       </c>
       <c r="G10">
-        <v>0.04690084362787645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01486342384416126</v>
+      </c>
+      <c r="H10">
+        <v>0.04909485580273568</v>
+      </c>
+      <c r="I10">
+        <v>-0.1598422046580555</v>
+      </c>
+      <c r="J10">
+        <v>0.1032159216978391</v>
+      </c>
+      <c r="K10">
+        <v>0.0368292977222678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.01360539194102493</v>
+        <v>0.01597219298036006</v>
       </c>
       <c r="C11">
-        <v>0.06678418080871207</v>
+        <v>0.08181889212558871</v>
       </c>
       <c r="D11">
-        <v>0.00780415488347003</v>
+        <v>-0.02828104718272972</v>
       </c>
       <c r="E11">
-        <v>-0.03679229340179764</v>
+        <v>0.003219734564085268</v>
       </c>
       <c r="F11">
-        <v>-0.06079971751246366</v>
+        <v>0.009153467923668257</v>
       </c>
       <c r="G11">
-        <v>0.01590962039305644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02643578212228799</v>
+      </c>
+      <c r="H11">
+        <v>0.03071092164744708</v>
+      </c>
+      <c r="I11">
+        <v>0.006470404120783589</v>
+      </c>
+      <c r="J11">
+        <v>0.03429855406528973</v>
+      </c>
+      <c r="K11">
+        <v>0.04421349759377825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.0128433289175595</v>
+        <v>0.0165398417292377</v>
       </c>
       <c r="C12">
-        <v>0.06338702136080182</v>
+        <v>0.06398727979101182</v>
       </c>
       <c r="D12">
-        <v>0.01544076314878819</v>
+        <v>-0.01672131569772364</v>
       </c>
       <c r="E12">
-        <v>-0.0267146474289891</v>
+        <v>-0.004991331533656921</v>
       </c>
       <c r="F12">
-        <v>-0.06175060961287986</v>
+        <v>-0.01747591829162016</v>
       </c>
       <c r="G12">
-        <v>-0.0239071257555716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.03426244654360785</v>
+      </c>
+      <c r="H12">
+        <v>0.03081426722177249</v>
+      </c>
+      <c r="I12">
+        <v>0.009673380688067713</v>
+      </c>
+      <c r="J12">
+        <v>0.01636542153327001</v>
+      </c>
+      <c r="K12">
+        <v>0.04723589708339312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.02508934767776853</v>
+        <v>0.007393558345725262</v>
       </c>
       <c r="C13">
-        <v>0.1015003956509709</v>
+        <v>0.1143565684769089</v>
       </c>
       <c r="D13">
-        <v>0.004211166139509863</v>
+        <v>-0.02895864433575793</v>
       </c>
       <c r="E13">
-        <v>-0.1342273335437273</v>
+        <v>0.08765105177496216</v>
       </c>
       <c r="F13">
-        <v>-0.1144488396246308</v>
+        <v>-0.1347986250583997</v>
       </c>
       <c r="G13">
-        <v>-0.08444648796478152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1118005020713912</v>
+      </c>
+      <c r="H13">
+        <v>0.1045800760630717</v>
+      </c>
+      <c r="I13">
+        <v>-0.1765696920164324</v>
+      </c>
+      <c r="J13">
+        <v>0.1189979405299604</v>
+      </c>
+      <c r="K13">
+        <v>-0.07346122239141459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.0152611492000412</v>
+        <v>0.0178010756746784</v>
       </c>
       <c r="C14">
-        <v>0.05800574118619534</v>
+        <v>0.07461637774111329</v>
       </c>
       <c r="D14">
-        <v>-0.007261999954837326</v>
+        <v>-0.03669394921855115</v>
       </c>
       <c r="E14">
-        <v>-0.06192263043680608</v>
+        <v>0.03148475089473039</v>
       </c>
       <c r="F14">
-        <v>-0.04136387315361444</v>
+        <v>-0.05280886987569025</v>
       </c>
       <c r="G14">
-        <v>-0.04386757105924258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.09542436869242428</v>
+      </c>
+      <c r="H14">
+        <v>0.1998394419165351</v>
+      </c>
+      <c r="I14">
+        <v>0.03381202451334715</v>
+      </c>
+      <c r="J14">
+        <v>0.1255649161843652</v>
+      </c>
+      <c r="K14">
+        <v>-0.1388068172772342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.005074450052708258</v>
+        <v>0.001665770724152845</v>
       </c>
       <c r="C15">
-        <v>0.08092143068375054</v>
+        <v>0.07501862798431386</v>
       </c>
       <c r="D15">
-        <v>-0.021156808637138</v>
+        <v>-0.02477600810228534</v>
       </c>
       <c r="E15">
-        <v>-0.1006078145451252</v>
+        <v>0.04706556071300316</v>
       </c>
       <c r="F15">
-        <v>-0.02952417521923629</v>
+        <v>-0.004081967106585863</v>
       </c>
       <c r="G15">
-        <v>-0.009435273239875957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.05050163039489553</v>
+      </c>
+      <c r="H15">
+        <v>0.07192770038795449</v>
+      </c>
+      <c r="I15">
+        <v>0.02706667012623016</v>
+      </c>
+      <c r="J15">
+        <v>0.04675713416110112</v>
+      </c>
+      <c r="K15">
+        <v>-0.01568492526163699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.02060152349943824</v>
+        <v>0.01722178093345277</v>
       </c>
       <c r="C16">
-        <v>0.06128470487924789</v>
+        <v>0.067353014778681</v>
       </c>
       <c r="D16">
-        <v>0.005930602551795049</v>
+        <v>-0.01956853300171686</v>
       </c>
       <c r="E16">
-        <v>-0.02451264870418732</v>
+        <v>-0.002244178856686653</v>
       </c>
       <c r="F16">
-        <v>-0.05552013317531424</v>
+        <v>0.002446648557950524</v>
       </c>
       <c r="G16">
-        <v>-0.01097020461863816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02518262476223898</v>
+      </c>
+      <c r="H16">
+        <v>0.02781964771430658</v>
+      </c>
+      <c r="I16">
+        <v>0.01146841679403743</v>
+      </c>
+      <c r="J16">
+        <v>0.01199628338486061</v>
+      </c>
+      <c r="K16">
+        <v>0.03022812962880388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01765399587501829</v>
+        <v>0.01256871088291673</v>
       </c>
       <c r="C20">
-        <v>0.07720909728958358</v>
+        <v>0.08621711060662766</v>
       </c>
       <c r="D20">
-        <v>-0.01470835766169065</v>
+        <v>-0.01294406132337913</v>
       </c>
       <c r="E20">
-        <v>-0.06053367459022655</v>
+        <v>0.01414814015739484</v>
       </c>
       <c r="F20">
-        <v>-0.08805658747840113</v>
+        <v>0.02111499544925185</v>
       </c>
       <c r="G20">
-        <v>0.004578612722168283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.06685117801603027</v>
+      </c>
+      <c r="H20">
+        <v>0.06955235613075439</v>
+      </c>
+      <c r="I20">
+        <v>0.02464074736244152</v>
+      </c>
+      <c r="J20">
+        <v>-0.01091404375707816</v>
+      </c>
+      <c r="K20">
+        <v>0.0150249841871278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.01393532599225633</v>
+        <v>0.01421484001952761</v>
       </c>
       <c r="C21">
-        <v>0.1049746554143995</v>
+        <v>0.08865618324527948</v>
       </c>
       <c r="D21">
-        <v>-0.0442638421747467</v>
+        <v>-0.01846606372637494</v>
       </c>
       <c r="E21">
-        <v>-0.02152925093626033</v>
+        <v>0.01222396150639053</v>
       </c>
       <c r="F21">
-        <v>-0.0107675742655515</v>
+        <v>-0.08806724092141158</v>
       </c>
       <c r="G21">
-        <v>-0.0590550563393521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.009554245198468689</v>
+      </c>
+      <c r="H21">
+        <v>0.1475775683309632</v>
+      </c>
+      <c r="I21">
+        <v>-0.02751530852946108</v>
+      </c>
+      <c r="J21">
+        <v>0.04807562016621938</v>
+      </c>
+      <c r="K21">
+        <v>0.0180975095965928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.002764547596196358</v>
+        <v>-0.007394849564085698</v>
       </c>
       <c r="C22">
-        <v>0.1612053664769525</v>
+        <v>0.1630689707452725</v>
       </c>
       <c r="D22">
-        <v>-0.2671400788316649</v>
+        <v>-0.008704606739921013</v>
       </c>
       <c r="E22">
-        <v>-0.2384226695014566</v>
+        <v>0.5078664445710133</v>
       </c>
       <c r="F22">
-        <v>0.2669352697895077</v>
+        <v>0.02878280995157369</v>
       </c>
       <c r="G22">
-        <v>0.1789517909974542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.160970168855072</v>
+      </c>
+      <c r="H22">
+        <v>-0.3109215272144876</v>
+      </c>
+      <c r="I22">
+        <v>-0.06242227648407835</v>
+      </c>
+      <c r="J22">
+        <v>0.1888331447693316</v>
+      </c>
+      <c r="K22">
+        <v>0.03269342740113875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.002621463743266095</v>
+        <v>-0.003215513747717736</v>
       </c>
       <c r="C23">
-        <v>0.1619315315827738</v>
+        <v>0.166820258249156</v>
       </c>
       <c r="D23">
-        <v>-0.2658014364235287</v>
+        <v>-0.006770000708484708</v>
       </c>
       <c r="E23">
-        <v>-0.2356617793831213</v>
+        <v>0.4940646283861341</v>
       </c>
       <c r="F23">
-        <v>0.2659267604385951</v>
+        <v>0.02576689411790152</v>
       </c>
       <c r="G23">
-        <v>0.1790152132600212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1558494397063835</v>
+      </c>
+      <c r="H23">
+        <v>-0.289922018766038</v>
+      </c>
+      <c r="I23">
+        <v>-0.06095003289273365</v>
+      </c>
+      <c r="J23">
+        <v>0.1797177960269625</v>
+      </c>
+      <c r="K23">
+        <v>0.04281141993364684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.009944380507605467</v>
+        <v>0.01681223010811578</v>
       </c>
       <c r="C24">
-        <v>0.07895108348228504</v>
+        <v>0.07745314840849016</v>
       </c>
       <c r="D24">
-        <v>0.02427337406614549</v>
+        <v>-0.0330464586437394</v>
       </c>
       <c r="E24">
-        <v>-0.03967751435507406</v>
+        <v>0.00156829272679228</v>
       </c>
       <c r="F24">
-        <v>-0.05888725220463269</v>
+        <v>0.005622181052205208</v>
       </c>
       <c r="G24">
-        <v>-0.005200544359055685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03119138460445307</v>
+      </c>
+      <c r="H24">
+        <v>0.03932972408740441</v>
+      </c>
+      <c r="I24">
+        <v>0.01129171550511524</v>
+      </c>
+      <c r="J24">
+        <v>0.01939568759862039</v>
+      </c>
+      <c r="K24">
+        <v>0.04691723066570057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.01442231076937083</v>
+        <v>0.02137299235722953</v>
       </c>
       <c r="C25">
-        <v>0.07054538415188163</v>
+        <v>0.07412324263617526</v>
       </c>
       <c r="D25">
-        <v>0.00398448855458773</v>
+        <v>-0.02221005857674421</v>
       </c>
       <c r="E25">
-        <v>-0.02975367390167493</v>
+        <v>0.005255766976953586</v>
       </c>
       <c r="F25">
-        <v>-0.06287859336475184</v>
+        <v>0.006572679483920722</v>
       </c>
       <c r="G25">
-        <v>0.001924019317898921</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03257731933653994</v>
+      </c>
+      <c r="H25">
+        <v>0.03247454929005961</v>
+      </c>
+      <c r="I25">
+        <v>-0.003761467427251946</v>
+      </c>
+      <c r="J25">
+        <v>0.03288881591887104</v>
+      </c>
+      <c r="K25">
+        <v>0.03532606822641911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01757646288816083</v>
+        <v>0.02487106609719763</v>
       </c>
       <c r="C26">
-        <v>0.05808486978405318</v>
+        <v>0.06546698336626056</v>
       </c>
       <c r="D26">
-        <v>0.02122300050035107</v>
+        <v>-0.05192762274635312</v>
       </c>
       <c r="E26">
-        <v>-0.0450716524331005</v>
+        <v>-0.004492139659911373</v>
       </c>
       <c r="F26">
-        <v>-0.0240409345809497</v>
+        <v>-0.0005188281218415754</v>
       </c>
       <c r="G26">
-        <v>-0.03105823574896714</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.008615460996959871</v>
+      </c>
+      <c r="H26">
+        <v>0.1032891633968973</v>
+      </c>
+      <c r="I26">
+        <v>0.04654314140881766</v>
+      </c>
+      <c r="J26">
+        <v>-0.06533254152464998</v>
+      </c>
+      <c r="K26">
+        <v>0.08468518444875274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.360022429866764</v>
+        <v>0.3213417234843469</v>
       </c>
       <c r="C28">
-        <v>-0.1298912252644897</v>
+        <v>-0.1158788189029755</v>
       </c>
       <c r="D28">
-        <v>-0.002762139257349112</v>
+        <v>0.02517488810379488</v>
       </c>
       <c r="E28">
-        <v>0.06934013888434098</v>
+        <v>0.008195831522124501</v>
       </c>
       <c r="F28">
-        <v>0.03434588522274427</v>
+        <v>-0.00482555787047557</v>
       </c>
       <c r="G28">
-        <v>-0.004891891772588182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1090414765354258</v>
+      </c>
+      <c r="H28">
+        <v>0.09049647611594062</v>
+      </c>
+      <c r="I28">
+        <v>-0.1961034033911645</v>
+      </c>
+      <c r="J28">
+        <v>-0.04287755907839458</v>
+      </c>
+      <c r="K28">
+        <v>-0.01362814879306028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01564553624578406</v>
+        <v>0.01279516814845893</v>
       </c>
       <c r="C29">
-        <v>0.05662760635127394</v>
+        <v>0.07701333692225215</v>
       </c>
       <c r="D29">
-        <v>-0.01840868903960727</v>
+        <v>-0.03937969909076532</v>
       </c>
       <c r="E29">
-        <v>-0.1088784319364227</v>
+        <v>0.06001011956405321</v>
       </c>
       <c r="F29">
-        <v>-0.08099925765512909</v>
+        <v>-0.06877344503441649</v>
       </c>
       <c r="G29">
-        <v>-0.04082530338083946</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1563316275571221</v>
+      </c>
+      <c r="H29">
+        <v>0.2862284506505948</v>
+      </c>
+      <c r="I29">
+        <v>0.03961576121975475</v>
+      </c>
+      <c r="J29">
+        <v>0.1857340178129842</v>
+      </c>
+      <c r="K29">
+        <v>-0.2562680511589495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.04775222525580712</v>
+        <v>0.02962504092593159</v>
       </c>
       <c r="C30">
-        <v>0.1739522949968902</v>
+        <v>0.1529198679023632</v>
       </c>
       <c r="D30">
-        <v>0.008031295908991522</v>
+        <v>-0.04852003879595157</v>
       </c>
       <c r="E30">
-        <v>-0.07907686020148853</v>
+        <v>0.05178452665646746</v>
       </c>
       <c r="F30">
-        <v>-0.002024667624200099</v>
+        <v>0.004318105985382578</v>
       </c>
       <c r="G30">
-        <v>0.01741863555557451</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.005386363422781038</v>
+      </c>
+      <c r="H30">
+        <v>0.02749676803818242</v>
+      </c>
+      <c r="I30">
+        <v>0.04707473014330033</v>
+      </c>
+      <c r="J30">
+        <v>-0.09193813535566379</v>
+      </c>
+      <c r="K30">
+        <v>0.03061622667398428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.004373485596515433</v>
+        <v>0.01286744743512985</v>
       </c>
       <c r="C31">
-        <v>0.09408097399142984</v>
+        <v>0.0956393691773272</v>
       </c>
       <c r="D31">
-        <v>0.04721487503904871</v>
+        <v>-0.03602748603730534</v>
       </c>
       <c r="E31">
-        <v>0.02381616325829417</v>
+        <v>-0.020705210133226</v>
       </c>
       <c r="F31">
-        <v>0.01950980796144738</v>
+        <v>0.0006970947712292427</v>
       </c>
       <c r="G31">
-        <v>-0.004474694453055767</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.046601196682032</v>
+      </c>
+      <c r="H31">
+        <v>0.03882128342074809</v>
+      </c>
+      <c r="I31">
+        <v>-0.001663389233258307</v>
+      </c>
+      <c r="J31">
+        <v>0.05235694220693638</v>
+      </c>
+      <c r="K31">
+        <v>0.03373420335537573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03659579743072914</v>
+        <v>0.02364645866527447</v>
       </c>
       <c r="C32">
-        <v>0.08621792650285562</v>
+        <v>0.06784880001421978</v>
       </c>
       <c r="D32">
-        <v>-0.06390046422491329</v>
+        <v>-0.01572061464010426</v>
       </c>
       <c r="E32">
-        <v>-0.1404287683050668</v>
+        <v>0.08948188344179675</v>
       </c>
       <c r="F32">
-        <v>-0.002270529505471445</v>
+        <v>-0.08649569473349852</v>
       </c>
       <c r="G32">
-        <v>-0.06794608157808919</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.04194828329001003</v>
+      </c>
+      <c r="H32">
+        <v>0.1584717773370201</v>
+      </c>
+      <c r="I32">
+        <v>-0.2426351467979559</v>
+      </c>
+      <c r="J32">
+        <v>-0.03760309235902523</v>
+      </c>
+      <c r="K32">
+        <v>-0.1696595663432174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01535757121810143</v>
+        <v>0.0165447592838502</v>
       </c>
       <c r="C33">
-        <v>0.08976963980895847</v>
+        <v>0.1093820715061661</v>
       </c>
       <c r="D33">
-        <v>0.01221928210726219</v>
+        <v>-0.03195818646501119</v>
       </c>
       <c r="E33">
-        <v>-0.06135406707184936</v>
+        <v>0.03172266683883263</v>
       </c>
       <c r="F33">
-        <v>-0.02866735652520292</v>
+        <v>-0.002381679178733485</v>
       </c>
       <c r="G33">
-        <v>-0.01429423138526527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03597702034748265</v>
+      </c>
+      <c r="H33">
+        <v>0.06265040923815945</v>
+      </c>
+      <c r="I33">
+        <v>-0.01270784832540852</v>
+      </c>
+      <c r="J33">
+        <v>0.008801805251920737</v>
+      </c>
+      <c r="K33">
+        <v>0.02515016980248384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.008230075986521127</v>
+        <v>0.01659885998817225</v>
       </c>
       <c r="C34">
-        <v>0.05565779669903481</v>
+        <v>0.05419809977384871</v>
       </c>
       <c r="D34">
-        <v>0.005540692286575958</v>
+        <v>-0.01669268017602799</v>
       </c>
       <c r="E34">
-        <v>-0.02848703160169712</v>
+        <v>-0.002453010935442147</v>
       </c>
       <c r="F34">
-        <v>-0.04358213502532304</v>
+        <v>-0.002986376941722489</v>
       </c>
       <c r="G34">
-        <v>-0.01888656534530696</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02697319387697652</v>
+      </c>
+      <c r="H34">
+        <v>0.008831935300121736</v>
+      </c>
+      <c r="I34">
+        <v>0.001174034402630377</v>
+      </c>
+      <c r="J34">
+        <v>0.01441574798732875</v>
+      </c>
+      <c r="K34">
+        <v>0.03960270152737407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002989843183868065</v>
+        <v>0.007694765045013616</v>
       </c>
       <c r="C35">
-        <v>0.01132548261657231</v>
+        <v>0.03640812723634329</v>
       </c>
       <c r="D35">
-        <v>-0.005712630472982259</v>
+        <v>-0.01424143732865314</v>
       </c>
       <c r="E35">
-        <v>-0.01872442915869813</v>
+        <v>0.01781084929816665</v>
       </c>
       <c r="F35">
-        <v>-0.02253288061933624</v>
+        <v>-0.01645287906747617</v>
       </c>
       <c r="G35">
-        <v>-0.005844465413121077</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.0623781092537151</v>
+      </c>
+      <c r="H35">
+        <v>0.1430428836124402</v>
+      </c>
+      <c r="I35">
+        <v>-0.004449734032068537</v>
+      </c>
+      <c r="J35">
+        <v>0.1488444284974923</v>
+      </c>
+      <c r="K35">
+        <v>-0.1280319090461243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.009558832285025493</v>
+        <v>0.01386459563424609</v>
       </c>
       <c r="C36">
-        <v>0.05104191385847969</v>
+        <v>0.05182117074875422</v>
       </c>
       <c r="D36">
-        <v>0.0239636823745095</v>
+        <v>-0.04002550259501836</v>
       </c>
       <c r="E36">
-        <v>-0.05351280070695789</v>
+        <v>0.01513901143543867</v>
       </c>
       <c r="F36">
-        <v>-0.009993022948022364</v>
+        <v>-0.002505442910031016</v>
       </c>
       <c r="G36">
-        <v>-0.01269448707476904</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01402490898877797</v>
+      </c>
+      <c r="H36">
+        <v>0.06561919554171655</v>
+      </c>
+      <c r="I36">
+        <v>0.01743863875848262</v>
+      </c>
+      <c r="J36">
+        <v>-0.0214525211437121</v>
+      </c>
+      <c r="K36">
+        <v>0.0619069059142365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.01679789084895492</v>
+        <v>0.01119632409993389</v>
       </c>
       <c r="C38">
-        <v>0.0514077715101742</v>
+        <v>0.06553712612010308</v>
       </c>
       <c r="D38">
-        <v>0.005231587071589727</v>
+        <v>-0.03085711605941771</v>
       </c>
       <c r="E38">
-        <v>-0.05639479319839456</v>
+        <v>0.03297038130916259</v>
       </c>
       <c r="F38">
-        <v>-0.002130872833416727</v>
+        <v>0.02728867942740664</v>
       </c>
       <c r="G38">
-        <v>0.02473831610626637</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.0128836249326403</v>
+      </c>
+      <c r="H38">
+        <v>0.07207688290483398</v>
+      </c>
+      <c r="I38">
+        <v>-0.05610814947881967</v>
+      </c>
+      <c r="J38">
+        <v>0.03539913612672917</v>
+      </c>
+      <c r="K38">
+        <v>0.06682573179310035</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.008841896294166641</v>
+        <v>0.01654112959803702</v>
       </c>
       <c r="C39">
-        <v>0.1363598901464971</v>
+        <v>0.133700778880397</v>
       </c>
       <c r="D39">
-        <v>0.003745768427418824</v>
+        <v>-0.04768533611449808</v>
       </c>
       <c r="E39">
-        <v>-0.06775051645085242</v>
+        <v>0.01071938239787553</v>
       </c>
       <c r="F39">
-        <v>-0.07410107994331409</v>
+        <v>-0.005572628557394242</v>
       </c>
       <c r="G39">
-        <v>-0.00855658425350669</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05294620474014941</v>
+      </c>
+      <c r="H39">
+        <v>0.03649306327174959</v>
+      </c>
+      <c r="I39">
+        <v>0.05629374952164028</v>
+      </c>
+      <c r="J39">
+        <v>-0.003658214026425509</v>
+      </c>
+      <c r="K39">
+        <v>0.05900688200967512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.0009423280605988778</v>
+        <v>0.01440799198470832</v>
       </c>
       <c r="C40">
-        <v>0.02957849617072059</v>
+        <v>0.06316259248654978</v>
       </c>
       <c r="D40">
-        <v>-0.01316185602744265</v>
+        <v>-0.02592230555347269</v>
       </c>
       <c r="E40">
-        <v>-0.1414889038255679</v>
+        <v>0.08982069762181605</v>
       </c>
       <c r="F40">
-        <v>-0.03447310294860815</v>
+        <v>-0.05040736732596544</v>
       </c>
       <c r="G40">
-        <v>-0.07091823801324219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1347463310009316</v>
+      </c>
+      <c r="H40">
+        <v>0.005216452203726516</v>
+      </c>
+      <c r="I40">
+        <v>-0.05690721010699617</v>
+      </c>
+      <c r="J40">
+        <v>0.2457311748053011</v>
+      </c>
+      <c r="K40">
+        <v>0.04061245244098943</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.007957785404800681</v>
+        <v>0.02070394794709859</v>
       </c>
       <c r="C41">
-        <v>0.02005614808341458</v>
+        <v>0.04880232676808403</v>
       </c>
       <c r="D41">
-        <v>-0.001245554389621901</v>
+        <v>-0.01040398464371297</v>
       </c>
       <c r="E41">
-        <v>0.01131192356587127</v>
+        <v>-0.01089368420099304</v>
       </c>
       <c r="F41">
-        <v>0.00805595637374811</v>
+        <v>0.004578848766092412</v>
       </c>
       <c r="G41">
-        <v>0.0003421494409955334</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01070222391893202</v>
+      </c>
+      <c r="H41">
+        <v>0.03426327989233378</v>
+      </c>
+      <c r="I41">
+        <v>-0.03438405535865228</v>
+      </c>
+      <c r="J41">
+        <v>0.06424616047631405</v>
+      </c>
+      <c r="K41">
+        <v>-0.0001433529132003636</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.002453916466632347</v>
+        <v>0.01542247856546645</v>
       </c>
       <c r="C43">
-        <v>0.02315467518290309</v>
+        <v>0.0467731372147977</v>
       </c>
       <c r="D43">
-        <v>0.004398397712069522</v>
+        <v>-0.02585966059848959</v>
       </c>
       <c r="E43">
-        <v>-0.02116619985558921</v>
+        <v>0.00488600442033552</v>
       </c>
       <c r="F43">
-        <v>-0.01158041334056757</v>
+        <v>0.01515599975182692</v>
       </c>
       <c r="G43">
-        <v>0.01695153573300901</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.0162917317229488</v>
+      </c>
+      <c r="H43">
+        <v>0.04827343265914485</v>
+      </c>
+      <c r="I43">
+        <v>-0.004983256449370586</v>
+      </c>
+      <c r="J43">
+        <v>0.05470438850746856</v>
+      </c>
+      <c r="K43">
+        <v>0.001150184636012547</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02172594094539483</v>
+        <v>0.009509368517543882</v>
       </c>
       <c r="C44">
-        <v>0.08555227782155189</v>
+        <v>0.09167762201857724</v>
       </c>
       <c r="D44">
-        <v>-0.04275795061155682</v>
+        <v>-0.04387756349581132</v>
       </c>
       <c r="E44">
-        <v>-0.1097614226903016</v>
+        <v>0.08758335109934447</v>
       </c>
       <c r="F44">
-        <v>-0.005910651745535424</v>
+        <v>0.003369619528098852</v>
       </c>
       <c r="G44">
-        <v>0.02776462751520676</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.0378138870869415</v>
+      </c>
+      <c r="H44">
+        <v>0.03959657102864942</v>
+      </c>
+      <c r="I44">
+        <v>0.06541703632544671</v>
+      </c>
+      <c r="J44">
+        <v>-0.0631463537283323</v>
+      </c>
+      <c r="K44">
+        <v>-0.01099315947085607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.006200026402790273</v>
+        <v>0.003782586618841506</v>
       </c>
       <c r="C46">
-        <v>0.06235927854579849</v>
+        <v>0.06430955252319905</v>
       </c>
       <c r="D46">
-        <v>-0.008242481662517358</v>
+        <v>-0.02149529358067252</v>
       </c>
       <c r="E46">
-        <v>-0.06322426115792509</v>
+        <v>0.0140960956030781</v>
       </c>
       <c r="F46">
-        <v>-0.05546703646700521</v>
+        <v>-0.01247392436931337</v>
       </c>
       <c r="G46">
-        <v>-0.02120592550035242</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05280032770917794</v>
+      </c>
+      <c r="H46">
+        <v>0.1106331905276122</v>
+      </c>
+      <c r="I46">
+        <v>0.007094348535479744</v>
+      </c>
+      <c r="J46">
+        <v>0.08897206106846205</v>
+      </c>
+      <c r="K46">
+        <v>-0.04209630097495413</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.01141808921213694</v>
+        <v>0.02328011330296524</v>
       </c>
       <c r="C47">
-        <v>0.1182691663096128</v>
+        <v>0.09921150703967448</v>
       </c>
       <c r="D47">
-        <v>0.04097203847728404</v>
+        <v>-0.03755904944489365</v>
       </c>
       <c r="E47">
-        <v>0.05580956416773471</v>
+        <v>-0.03453043394753572</v>
       </c>
       <c r="F47">
-        <v>-0.0009859580295999849</v>
+        <v>-0.005379639179268483</v>
       </c>
       <c r="G47">
-        <v>-0.0346028880814342</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01868839480255345</v>
+      </c>
+      <c r="H47">
+        <v>0.07629277060572918</v>
+      </c>
+      <c r="I47">
+        <v>-0.03069097293964978</v>
+      </c>
+      <c r="J47">
+        <v>0.04140271858614221</v>
+      </c>
+      <c r="K47">
+        <v>0.04413612312831659</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01827083773254472</v>
+        <v>0.02158058141201969</v>
       </c>
       <c r="C48">
-        <v>0.05546368187279338</v>
+        <v>0.05878489959775585</v>
       </c>
       <c r="D48">
-        <v>0.04624025506095688</v>
+        <v>-0.05121280451953793</v>
       </c>
       <c r="E48">
-        <v>-0.05431689247769628</v>
+        <v>0.005847348854433785</v>
       </c>
       <c r="F48">
-        <v>-0.0141362626640006</v>
+        <v>0.001538880841339746</v>
       </c>
       <c r="G48">
-        <v>-0.009340636647384284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.008450134153518996</v>
+      </c>
+      <c r="H48">
+        <v>0.1047757333154548</v>
+      </c>
+      <c r="I48">
+        <v>0.03628320906557379</v>
+      </c>
+      <c r="J48">
+        <v>-0.05903750689738321</v>
+      </c>
+      <c r="K48">
+        <v>0.09311032601653065</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.008484760563312431</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.01833969927362722</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-1.962660574871045e-05</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.02431796983897562</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.01069602774109309</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.01904320389264338</v>
+      </c>
+      <c r="H49">
+        <v>-0.02132854007524406</v>
+      </c>
+      <c r="I49">
+        <v>0.03574080146644145</v>
+      </c>
+      <c r="J49">
+        <v>-0.01248886393052726</v>
+      </c>
+      <c r="K49">
+        <v>0.004484447787205788</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.009010000685866821</v>
+        <v>0.01481658849242786</v>
       </c>
       <c r="C50">
-        <v>0.09635763435864476</v>
+        <v>0.09068506115306695</v>
       </c>
       <c r="D50">
-        <v>0.02255283324417905</v>
+        <v>-0.02195927731549823</v>
       </c>
       <c r="E50">
-        <v>0.01295180670779315</v>
+        <v>-0.009823903248426795</v>
       </c>
       <c r="F50">
-        <v>0.01731469602363436</v>
+        <v>0.003524776307395094</v>
       </c>
       <c r="G50">
-        <v>0.007582328977755153</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.0299619599282721</v>
+      </c>
+      <c r="H50">
+        <v>0.06418938159851806</v>
+      </c>
+      <c r="I50">
+        <v>-0.04962077241008635</v>
+      </c>
+      <c r="J50">
+        <v>0.03508404195051029</v>
+      </c>
+      <c r="K50">
+        <v>0.01788426401341531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.01175902794114572</v>
+        <v>-0.004438199689021336</v>
       </c>
       <c r="C51">
-        <v>0.06679510096780696</v>
+        <v>0.04363418016902859</v>
       </c>
       <c r="D51">
-        <v>-0.04364844813210819</v>
+        <v>-0.01578985934916849</v>
       </c>
       <c r="E51">
-        <v>-0.07559524454440297</v>
+        <v>0.02868105541731878</v>
       </c>
       <c r="F51">
-        <v>-0.009222712802071783</v>
+        <v>-0.01924445660943049</v>
       </c>
       <c r="G51">
-        <v>0.001893540839527895</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02369420710964671</v>
+      </c>
+      <c r="H51">
+        <v>0.09127415125444294</v>
+      </c>
+      <c r="I51">
+        <v>0.04003712980121352</v>
+      </c>
+      <c r="J51">
+        <v>-0.1155563897325353</v>
+      </c>
+      <c r="K51">
+        <v>0.01525764921263925</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.05175726004276678</v>
+        <v>0.05719186544046639</v>
       </c>
       <c r="C53">
-        <v>0.144118473234237</v>
+        <v>0.1361753809643813</v>
       </c>
       <c r="D53">
-        <v>0.0793882905869475</v>
+        <v>-0.04639838772749615</v>
       </c>
       <c r="E53">
-        <v>0.06640023137173316</v>
+        <v>-0.08324127794987837</v>
       </c>
       <c r="F53">
-        <v>-0.0001682824041984189</v>
+        <v>0.0122489237209781</v>
       </c>
       <c r="G53">
-        <v>0.04072846373377976</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.06602401059532782</v>
+      </c>
+      <c r="H53">
+        <v>-0.01432589134724634</v>
+      </c>
+      <c r="I53">
+        <v>-0.04362908839917595</v>
+      </c>
+      <c r="J53">
+        <v>0.03224435654489536</v>
+      </c>
+      <c r="K53">
+        <v>0.08299055261628623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.01770977509298962</v>
+        <v>0.01743634394915566</v>
       </c>
       <c r="C54">
-        <v>0.05729817312989108</v>
+        <v>0.06980944051835894</v>
       </c>
       <c r="D54">
-        <v>-0.01126132670509369</v>
+        <v>-0.002812794609590104</v>
       </c>
       <c r="E54">
-        <v>-0.01815122930986455</v>
+        <v>-0.0007961343110375336</v>
       </c>
       <c r="F54">
-        <v>-0.02714929326216911</v>
+        <v>-0.001407903777042286</v>
       </c>
       <c r="G54">
-        <v>0.0182438307701098</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02872531891642851</v>
+      </c>
+      <c r="H54">
+        <v>0.0654678176042086</v>
+      </c>
+      <c r="I54">
+        <v>0.01701427565327379</v>
+      </c>
+      <c r="J54">
+        <v>0.03507748931659722</v>
+      </c>
+      <c r="K54">
+        <v>-0.01457418058668972</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.03963646549953292</v>
+        <v>0.03409412218348075</v>
       </c>
       <c r="C55">
-        <v>0.1034819770037489</v>
+        <v>0.095370560569752</v>
       </c>
       <c r="D55">
-        <v>0.08123986663228672</v>
+        <v>-0.04810614084898762</v>
       </c>
       <c r="E55">
-        <v>0.03256311914920686</v>
+        <v>-0.06949603076452904</v>
       </c>
       <c r="F55">
-        <v>-0.0006172417535564052</v>
+        <v>0.0114241540897117</v>
       </c>
       <c r="G55">
-        <v>-0.01196168075699864</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03221427005028985</v>
+      </c>
+      <c r="H55">
+        <v>-0.008402669033024767</v>
+      </c>
+      <c r="I55">
+        <v>0.0123017954373383</v>
+      </c>
+      <c r="J55">
+        <v>0.01915794132568208</v>
+      </c>
+      <c r="K55">
+        <v>0.05944010943477749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.04537099041196425</v>
+        <v>0.04481603757244795</v>
       </c>
       <c r="C56">
-        <v>0.1794416582502377</v>
+        <v>0.1628601998971152</v>
       </c>
       <c r="D56">
-        <v>0.09929180297595669</v>
+        <v>-0.0682553215814415</v>
       </c>
       <c r="E56">
-        <v>0.1189627878371708</v>
+        <v>-0.1316983601073859</v>
       </c>
       <c r="F56">
-        <v>0.03004063844484615</v>
+        <v>0.002944168031057271</v>
       </c>
       <c r="G56">
-        <v>0.01237019928884626</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1251380489342162</v>
+      </c>
+      <c r="H56">
+        <v>-0.02892037501596888</v>
+      </c>
+      <c r="I56">
+        <v>-0.03638221553640832</v>
+      </c>
+      <c r="J56">
+        <v>-0.009695591403005655</v>
+      </c>
+      <c r="K56">
+        <v>0.0527498943197444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.0394565837536737</v>
+        <v>0.018583297980445</v>
       </c>
       <c r="C58">
-        <v>0.2276119818684891</v>
+        <v>0.1831042459627554</v>
       </c>
       <c r="D58">
-        <v>-0.196406256162677</v>
+        <v>-0.01233137199306499</v>
       </c>
       <c r="E58">
-        <v>-0.1547589992723039</v>
+        <v>0.2823869668222008</v>
       </c>
       <c r="F58">
-        <v>0.1826757318824253</v>
+        <v>-0.0144658191621612</v>
       </c>
       <c r="G58">
-        <v>0.1864602362027143</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1452090079193591</v>
+      </c>
+      <c r="H58">
+        <v>0.03838418819458774</v>
+      </c>
+      <c r="I58">
+        <v>0.008591734029447453</v>
+      </c>
+      <c r="J58">
+        <v>-0.435794892586926</v>
+      </c>
+      <c r="K58">
+        <v>-0.245349027513894</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2777976958704024</v>
+        <v>0.2847551441935099</v>
       </c>
       <c r="C59">
-        <v>-0.03539681364634183</v>
+        <v>-0.04558115495502094</v>
       </c>
       <c r="D59">
-        <v>-0.03901695590682245</v>
+        <v>0.001808671767031386</v>
       </c>
       <c r="E59">
-        <v>-0.02679570592917905</v>
+        <v>0.04153906207864264</v>
       </c>
       <c r="F59">
-        <v>0.02171336240203978</v>
+        <v>-0.02389646945313527</v>
       </c>
       <c r="G59">
-        <v>-0.06456427533495368</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01353905843834008</v>
+      </c>
+      <c r="H59">
+        <v>-0.02435230138440201</v>
+      </c>
+      <c r="I59">
+        <v>-0.03809023567041626</v>
+      </c>
+      <c r="J59">
+        <v>0.01646294824188876</v>
+      </c>
+      <c r="K59">
+        <v>0.02442324807989305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1233794628098712</v>
+        <v>0.1491803829867908</v>
       </c>
       <c r="C60">
-        <v>0.1249001128850314</v>
+        <v>0.1442092710777705</v>
       </c>
       <c r="D60">
-        <v>0.04856124536267329</v>
+        <v>-0.03502154789835524</v>
       </c>
       <c r="E60">
-        <v>-0.0489051089508531</v>
+        <v>-0.06599657726645175</v>
       </c>
       <c r="F60">
-        <v>-0.2671035296820984</v>
+        <v>-0.03947328838424349</v>
       </c>
       <c r="G60">
-        <v>-0.1125964894032844</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2604189896519157</v>
+      </c>
+      <c r="H60">
+        <v>-0.260236558929639</v>
+      </c>
+      <c r="I60">
+        <v>0.03409634900466479</v>
+      </c>
+      <c r="J60">
+        <v>-0.01457348884122526</v>
+      </c>
+      <c r="K60">
+        <v>-0.09552155548697469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.01091196401107843</v>
+        <v>0.01957005683031147</v>
       </c>
       <c r="C61">
-        <v>0.09638136160297829</v>
+        <v>0.1042550878492918</v>
       </c>
       <c r="D61">
-        <v>0.03518633201530379</v>
+        <v>-0.04567019363381804</v>
       </c>
       <c r="E61">
-        <v>-0.04286873907109981</v>
+        <v>-0.01657750924524692</v>
       </c>
       <c r="F61">
-        <v>-0.0779776458637202</v>
+        <v>-0.002690798068874076</v>
       </c>
       <c r="G61">
-        <v>-0.02347698368080708</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.04907874313855323</v>
+      </c>
+      <c r="H61">
+        <v>0.04642646517077202</v>
+      </c>
+      <c r="I61">
+        <v>0.02740478123228405</v>
+      </c>
+      <c r="J61">
+        <v>0.03368212701160941</v>
+      </c>
+      <c r="K61">
+        <v>0.04359031546776513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0009384691468533001</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.004642458332609382</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.002235603264270825</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01358988204296908</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.002028837612750108</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02097347321301535</v>
+      </c>
+      <c r="H62">
+        <v>0.007257029434542498</v>
+      </c>
+      <c r="I62">
+        <v>0.005193384154752035</v>
+      </c>
+      <c r="J62">
+        <v>0.006002242846509282</v>
+      </c>
+      <c r="K62">
+        <v>-0.005465665975223764</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.005832546803313984</v>
+        <v>0.02383352943850749</v>
       </c>
       <c r="C63">
-        <v>0.06598650435713561</v>
+        <v>0.0760650517751343</v>
       </c>
       <c r="D63">
-        <v>0.01248888104633724</v>
+        <v>-0.04687417533532338</v>
       </c>
       <c r="E63">
-        <v>-0.02622965951102545</v>
+        <v>-0.002531823725660622</v>
       </c>
       <c r="F63">
-        <v>-0.04396225744484572</v>
+        <v>-0.00490714147185111</v>
       </c>
       <c r="G63">
-        <v>0.000649333274943508</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.02545471284223555</v>
+      </c>
+      <c r="H63">
+        <v>0.0562699571041082</v>
+      </c>
+      <c r="I63">
+        <v>0.009343395709982718</v>
+      </c>
+      <c r="J63">
+        <v>0.0325068788967853</v>
+      </c>
+      <c r="K63">
+        <v>0.05646130580952729</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.01328005461150011</v>
+        <v>0.01995794652338113</v>
       </c>
       <c r="C64">
-        <v>0.1048574445494425</v>
+        <v>0.09866257449088653</v>
       </c>
       <c r="D64">
-        <v>0.03796609075086645</v>
+        <v>-0.0289915618439639</v>
       </c>
       <c r="E64">
-        <v>-0.03565893225301137</v>
+        <v>0.04390644565449643</v>
       </c>
       <c r="F64">
-        <v>-0.03230473118003863</v>
+        <v>0.02628108706631553</v>
       </c>
       <c r="G64">
-        <v>-0.001470515239657338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.02143439873123198</v>
+      </c>
+      <c r="H64">
+        <v>0.03303905349985453</v>
+      </c>
+      <c r="I64">
+        <v>0.01775879860264366</v>
+      </c>
+      <c r="J64">
+        <v>0.02830988958849403</v>
+      </c>
+      <c r="K64">
+        <v>0.1074483873374466</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.025362687320182</v>
+        <v>0.03086666138910968</v>
       </c>
       <c r="C65">
-        <v>0.06202715733721441</v>
+        <v>0.08508438135620694</v>
       </c>
       <c r="D65">
-        <v>-0.03617437851582615</v>
+        <v>-0.005201597673043296</v>
       </c>
       <c r="E65">
-        <v>-0.07643128847486094</v>
+        <v>0.06361737423045699</v>
       </c>
       <c r="F65">
-        <v>-0.06588794731035649</v>
+        <v>0.01260952306719509</v>
       </c>
       <c r="G65">
-        <v>-0.005263424319201634</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.1271999617503458</v>
+      </c>
+      <c r="H65">
+        <v>-0.01130743648300857</v>
+      </c>
+      <c r="I65">
+        <v>0.07799401228939727</v>
+      </c>
+      <c r="J65">
+        <v>-0.06652371401973203</v>
+      </c>
+      <c r="K65">
+        <v>-0.02380672887036055</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.008131402239132482</v>
+        <v>0.01302148400829801</v>
       </c>
       <c r="C66">
-        <v>0.1616964754788345</v>
+        <v>0.1623503534992817</v>
       </c>
       <c r="D66">
-        <v>-0.03216007213153653</v>
+        <v>-0.03303829491446349</v>
       </c>
       <c r="E66">
-        <v>-0.09267147330783913</v>
+        <v>0.028905458169149</v>
       </c>
       <c r="F66">
-        <v>-0.07603560586336663</v>
+        <v>-0.01437247120720696</v>
       </c>
       <c r="G66">
-        <v>-0.03702945612636745</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04375251509114492</v>
+      </c>
+      <c r="H66">
+        <v>0.04455867507464862</v>
+      </c>
+      <c r="I66">
+        <v>0.03504900086226057</v>
+      </c>
+      <c r="J66">
+        <v>-0.00995753638776499</v>
+      </c>
+      <c r="K66">
+        <v>0.03358352866737829</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.020469754198243</v>
+        <v>0.02064886569695506</v>
       </c>
       <c r="C67">
-        <v>0.04033647462371759</v>
+        <v>0.05661635525576</v>
       </c>
       <c r="D67">
-        <v>0.04489946650808545</v>
+        <v>-0.03645860709393887</v>
       </c>
       <c r="E67">
-        <v>-0.02715410813745746</v>
+        <v>-0.002046415303415412</v>
       </c>
       <c r="F67">
-        <v>-0.01262684987313859</v>
+        <v>0.02862616082575238</v>
       </c>
       <c r="G67">
-        <v>0.02063703496681233</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03128406113477371</v>
+      </c>
+      <c r="H67">
+        <v>0.04620497865676351</v>
+      </c>
+      <c r="I67">
+        <v>-0.04852423368780641</v>
+      </c>
+      <c r="J67">
+        <v>0.051626863054875</v>
+      </c>
+      <c r="K67">
+        <v>0.05009654524507219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2579821615991896</v>
+        <v>0.2887460206451883</v>
       </c>
       <c r="C68">
-        <v>-0.05091476861860601</v>
+        <v>-0.05093586480752051</v>
       </c>
       <c r="D68">
-        <v>-0.04431732351735852</v>
+        <v>0.02883528279926881</v>
       </c>
       <c r="E68">
-        <v>-0.03002870371146074</v>
+        <v>0.0668253465378106</v>
       </c>
       <c r="F68">
-        <v>0.06615866596437471</v>
+        <v>-0.01028094735742254</v>
       </c>
       <c r="G68">
-        <v>0.0345795470018562</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03613628057732186</v>
+      </c>
+      <c r="H68">
+        <v>-0.02020942870146194</v>
+      </c>
+      <c r="I68">
+        <v>-0.05507611487013005</v>
+      </c>
+      <c r="J68">
+        <v>0.009689690878568129</v>
+      </c>
+      <c r="K68">
+        <v>0.0216833518289529</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01243933491925509</v>
+        <v>0.008975804740750892</v>
       </c>
       <c r="C69">
-        <v>0.1031986236550476</v>
+        <v>0.07869044634323519</v>
       </c>
       <c r="D69">
-        <v>0.06921105486968021</v>
+        <v>-0.02696628355991714</v>
       </c>
       <c r="E69">
-        <v>0.008552093411239227</v>
+        <v>-0.02582813878002669</v>
       </c>
       <c r="F69">
-        <v>0.01324620854898647</v>
+        <v>0.0009553552261043866</v>
       </c>
       <c r="G69">
-        <v>0.009643537216150595</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.00326127521896167</v>
+      </c>
+      <c r="H69">
+        <v>0.05839237621223757</v>
+      </c>
+      <c r="I69">
+        <v>-0.02317151677456353</v>
+      </c>
+      <c r="J69">
+        <v>0.009494248557676006</v>
+      </c>
+      <c r="K69">
+        <v>0.05352332378498885</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.293763333315608</v>
+        <v>0.2805489341054855</v>
       </c>
       <c r="C71">
-        <v>-0.07903004484137308</v>
+        <v>-0.08116259779526513</v>
       </c>
       <c r="D71">
-        <v>-0.01844479457480385</v>
+        <v>0.01642914056824596</v>
       </c>
       <c r="E71">
-        <v>0.004806752895853733</v>
+        <v>0.03228648244984648</v>
       </c>
       <c r="F71">
-        <v>-0.01577914235250881</v>
+        <v>0.01726337258002082</v>
       </c>
       <c r="G71">
-        <v>0.009012969221604245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01684624452120139</v>
+      </c>
+      <c r="H71">
+        <v>0.06128682995952725</v>
+      </c>
+      <c r="I71">
+        <v>-0.1174300303839407</v>
+      </c>
+      <c r="J71">
+        <v>-0.07269549972540762</v>
+      </c>
+      <c r="K71">
+        <v>0.0484550686059916</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.04093737557178723</v>
+        <v>0.0567147474045519</v>
       </c>
       <c r="C72">
-        <v>0.1585530711785682</v>
+        <v>0.146170430331046</v>
       </c>
       <c r="D72">
-        <v>0.003290014125541663</v>
+        <v>-0.02352661108963015</v>
       </c>
       <c r="E72">
-        <v>-0.1044208125779184</v>
+        <v>0.01113766187221311</v>
       </c>
       <c r="F72">
-        <v>-0.1095827841915822</v>
+        <v>-0.0006171070745239582</v>
       </c>
       <c r="G72">
-        <v>0.01846982749261473</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0573663517488089</v>
+      </c>
+      <c r="H72">
+        <v>-0.02623053189439865</v>
+      </c>
+      <c r="I72">
+        <v>0.0836336490122889</v>
+      </c>
+      <c r="J72">
+        <v>-0.04161773474606199</v>
+      </c>
+      <c r="K72">
+        <v>0.01363398729007223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.1012629199684567</v>
+        <v>0.1540593366304676</v>
       </c>
       <c r="C73">
-        <v>0.1439761337568546</v>
+        <v>0.1893723825275399</v>
       </c>
       <c r="D73">
-        <v>0.1023178162032778</v>
+        <v>-0.06290850226383116</v>
       </c>
       <c r="E73">
-        <v>-0.05002986699121213</v>
+        <v>-0.1592628664109962</v>
       </c>
       <c r="F73">
-        <v>-0.3656296878379394</v>
+        <v>-0.02114841830377224</v>
       </c>
       <c r="G73">
-        <v>-0.1321565552539516</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3961083700187923</v>
+      </c>
+      <c r="H73">
+        <v>-0.3274999807155172</v>
+      </c>
+      <c r="I73">
+        <v>-0.06440700231174179</v>
+      </c>
+      <c r="J73">
+        <v>-0.1080268892531175</v>
+      </c>
+      <c r="K73">
+        <v>-0.06376644871021606</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.02582665591163043</v>
+        <v>0.03786928456122383</v>
       </c>
       <c r="C74">
-        <v>0.1032095422722473</v>
+        <v>0.1063994702970788</v>
       </c>
       <c r="D74">
-        <v>0.09311304798581142</v>
+        <v>-0.03983799641532592</v>
       </c>
       <c r="E74">
-        <v>0.06385544452531286</v>
+        <v>-0.07595513171898649</v>
       </c>
       <c r="F74">
-        <v>0.005119448017478063</v>
+        <v>0.01375150088428593</v>
       </c>
       <c r="G74">
-        <v>-0.01105966146142976</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.041777494322815</v>
+      </c>
+      <c r="H74">
+        <v>0.006272006202047115</v>
+      </c>
+      <c r="I74">
+        <v>0.005246891114830004</v>
+      </c>
+      <c r="J74">
+        <v>-0.001823301883886543</v>
+      </c>
+      <c r="K74">
+        <v>0.07367794984692547</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.07753132960832157</v>
+        <v>0.06313619113255195</v>
       </c>
       <c r="C75">
-        <v>0.1770846976864815</v>
+        <v>0.1822459920158268</v>
       </c>
       <c r="D75">
-        <v>0.1600928884250309</v>
+        <v>-0.06549895161020164</v>
       </c>
       <c r="E75">
-        <v>0.1802973675700589</v>
+        <v>-0.1692204376261915</v>
       </c>
       <c r="F75">
-        <v>0.09425746817232691</v>
+        <v>0.08609518964300247</v>
       </c>
       <c r="G75">
-        <v>0.06079242171084687</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1844263840642236</v>
+      </c>
+      <c r="H75">
+        <v>-0.02911419306979358</v>
+      </c>
+      <c r="I75">
+        <v>-0.1023878001198539</v>
+      </c>
+      <c r="J75">
+        <v>0.0587353363329806</v>
+      </c>
+      <c r="K75">
+        <v>0.04996073811014146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.04856250552135898</v>
+        <v>0.0437501936741111</v>
       </c>
       <c r="C76">
-        <v>0.1271993790341929</v>
+        <v>0.1318037618947203</v>
       </c>
       <c r="D76">
-        <v>0.0974929769191606</v>
+        <v>-0.06345733044385136</v>
       </c>
       <c r="E76">
-        <v>0.07869309837709264</v>
+        <v>-0.1061838024084299</v>
       </c>
       <c r="F76">
-        <v>-0.01745521796466866</v>
+        <v>0.02457590601965683</v>
       </c>
       <c r="G76">
-        <v>-0.02438102654165077</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05214786051402939</v>
+      </c>
+      <c r="H76">
+        <v>-0.003455672976002912</v>
+      </c>
+      <c r="I76">
+        <v>-0.003455406347955146</v>
+      </c>
+      <c r="J76">
+        <v>0.03592178471930431</v>
+      </c>
+      <c r="K76">
+        <v>0.1427499882822248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09298449587688484</v>
+        <v>0.04745277702258369</v>
       </c>
       <c r="C77">
-        <v>0.2002436935862879</v>
+        <v>0.3075612131393863</v>
       </c>
       <c r="D77">
-        <v>-0.6876232839455934</v>
+        <v>0.9363927892931018</v>
       </c>
       <c r="E77">
-        <v>0.5748039331591261</v>
+        <v>-0.07764428064966292</v>
       </c>
       <c r="F77">
-        <v>-0.2536590562380267</v>
+        <v>0.05502988905608928</v>
       </c>
       <c r="G77">
-        <v>0.1077099551409922</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.000284287059101911</v>
+      </c>
+      <c r="H77">
+        <v>0.04626352961960252</v>
+      </c>
+      <c r="I77">
+        <v>0.00422559844822902</v>
+      </c>
+      <c r="J77">
+        <v>0.01050611196908349</v>
+      </c>
+      <c r="K77">
+        <v>0.005572785982712602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.0460450355206772</v>
+        <v>0.0358087787076602</v>
       </c>
       <c r="C78">
-        <v>0.1743446978208654</v>
+        <v>0.1290115018075803</v>
       </c>
       <c r="D78">
-        <v>0.02755007995170794</v>
+        <v>-0.08503820003094612</v>
       </c>
       <c r="E78">
-        <v>-0.03293134503641381</v>
+        <v>-0.02887000577999986</v>
       </c>
       <c r="F78">
-        <v>0.1301326467569477</v>
+        <v>-0.03347358612631866</v>
       </c>
       <c r="G78">
-        <v>-0.09302049658572739</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1182048697439695</v>
+      </c>
+      <c r="H78">
+        <v>0.08348309012017713</v>
+      </c>
+      <c r="I78">
+        <v>0.1769586680752394</v>
+      </c>
+      <c r="J78">
+        <v>-0.4342526860107717</v>
+      </c>
+      <c r="K78">
+        <v>0.008117963710191462</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.05487392422681541</v>
+        <v>0.05878596111102657</v>
       </c>
       <c r="C79">
-        <v>0.2158939912591181</v>
+        <v>0.1669460296362963</v>
       </c>
       <c r="D79">
-        <v>0.160956785798473</v>
+        <v>-0.06072706670463414</v>
       </c>
       <c r="E79">
-        <v>0.170189952878199</v>
+        <v>-0.1440611362160878</v>
       </c>
       <c r="F79">
-        <v>0.1518908239437283</v>
+        <v>0.01677368296304084</v>
       </c>
       <c r="G79">
-        <v>-0.01803116561462142</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2210361049260914</v>
+      </c>
+      <c r="H79">
+        <v>0.01500617322411463</v>
+      </c>
+      <c r="I79">
+        <v>-0.09455236447545078</v>
+      </c>
+      <c r="J79">
+        <v>-0.01933756327365855</v>
+      </c>
+      <c r="K79">
+        <v>0.06020169614910847</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.01282808264770889</v>
+        <v>0.01951994805951054</v>
       </c>
       <c r="C80">
-        <v>0.06280417546959316</v>
+        <v>0.05813300112514248</v>
       </c>
       <c r="D80">
-        <v>0.0349791745160536</v>
+        <v>-0.03914729437287414</v>
       </c>
       <c r="E80">
-        <v>0.006769660768915262</v>
+        <v>0.01269111770727111</v>
       </c>
       <c r="F80">
-        <v>-0.004576909801442476</v>
+        <v>-0.04989520590820862</v>
       </c>
       <c r="G80">
-        <v>-0.01151394280366088</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04047272598855008</v>
+      </c>
+      <c r="H80">
+        <v>-0.04275895601847204</v>
+      </c>
+      <c r="I80">
+        <v>-0.05674543654998761</v>
+      </c>
+      <c r="J80">
+        <v>0.08542798304764541</v>
+      </c>
+      <c r="K80">
+        <v>0.05198864997931277</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.02196592081468104</v>
+        <v>0.01802022806918427</v>
       </c>
       <c r="C81">
-        <v>0.1127330522484375</v>
+        <v>0.1110016307794093</v>
       </c>
       <c r="D81">
-        <v>0.1261922840464594</v>
+        <v>-0.0432444332591838</v>
       </c>
       <c r="E81">
-        <v>0.1354739155872727</v>
+        <v>-0.09233279240779504</v>
       </c>
       <c r="F81">
-        <v>0.03513831681419415</v>
+        <v>0.01192115310972636</v>
       </c>
       <c r="G81">
-        <v>-0.01059098704596174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1107639283312059</v>
+      </c>
+      <c r="H81">
+        <v>0.0544092231654259</v>
+      </c>
+      <c r="I81">
+        <v>-0.05913836454215458</v>
+      </c>
+      <c r="J81">
+        <v>0.03431735796040759</v>
+      </c>
+      <c r="K81">
+        <v>0.101795676019958</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.04807891400319147</v>
+        <v>0.04789161775893288</v>
       </c>
       <c r="C82">
-        <v>0.1227273219521878</v>
+        <v>0.1172275915102332</v>
       </c>
       <c r="D82">
-        <v>0.122196618146938</v>
+        <v>-0.063077967168263</v>
       </c>
       <c r="E82">
-        <v>0.07916505386864651</v>
+        <v>-0.1018084742317135</v>
       </c>
       <c r="F82">
-        <v>-0.01722358973844266</v>
+        <v>0.01505551817978004</v>
       </c>
       <c r="G82">
-        <v>-0.002503674172668966</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.07185550445923844</v>
+      </c>
+      <c r="H82">
+        <v>0.01329025610550956</v>
+      </c>
+      <c r="I82">
+        <v>-0.02510020259826343</v>
+      </c>
+      <c r="J82">
+        <v>0.01802254156875791</v>
+      </c>
+      <c r="K82">
+        <v>0.1179771862327259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.006977201449395057</v>
+        <v>-0.0001457203853937851</v>
       </c>
       <c r="C83">
-        <v>0.04114775147772926</v>
+        <v>0.000836428665760958</v>
       </c>
       <c r="D83">
-        <v>-0.2191558320872379</v>
+        <v>0.05880474207255386</v>
       </c>
       <c r="E83">
-        <v>0.0685533345157328</v>
+        <v>-0.06782553443599577</v>
       </c>
       <c r="F83">
-        <v>0.3169465492786097</v>
+        <v>-0.9504489236881276</v>
       </c>
       <c r="G83">
-        <v>-0.8483250525303319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.1367815930531928</v>
+      </c>
+      <c r="H83">
+        <v>-0.09685187191371025</v>
+      </c>
+      <c r="I83">
+        <v>0.04591681381373974</v>
+      </c>
+      <c r="J83">
+        <v>0.02401781909392507</v>
+      </c>
+      <c r="K83">
+        <v>0.0916061597052501</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.001527369753889345</v>
+        <v>-6.28862863187843e-05</v>
       </c>
       <c r="C84">
-        <v>0.04207697991451292</v>
+        <v>0.03941089185802728</v>
       </c>
       <c r="D84">
-        <v>-0.01342980676057045</v>
+        <v>-0.05795354474525539</v>
       </c>
       <c r="E84">
-        <v>-0.08819174359082113</v>
+        <v>0.08236284089843096</v>
       </c>
       <c r="F84">
-        <v>0.05970521486984415</v>
+        <v>0.01624025758484221</v>
       </c>
       <c r="G84">
-        <v>0.09221106061141508</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.04019253810973588</v>
+      </c>
+      <c r="H84">
+        <v>0.08240037488165311</v>
+      </c>
+      <c r="I84">
+        <v>0.09260257204750866</v>
+      </c>
+      <c r="J84">
+        <v>0.05317252352048678</v>
+      </c>
+      <c r="K84">
+        <v>0.06298974440406369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.04332448922131279</v>
+        <v>0.0323808343975891</v>
       </c>
       <c r="C85">
-        <v>0.1534861426750188</v>
+        <v>0.1296682957366986</v>
       </c>
       <c r="D85">
-        <v>0.147502450602213</v>
+        <v>-0.06905798156714163</v>
       </c>
       <c r="E85">
-        <v>0.1564904938147436</v>
+        <v>-0.1685080584600181</v>
       </c>
       <c r="F85">
-        <v>0.09783401272513113</v>
+        <v>0.03207425668233959</v>
       </c>
       <c r="G85">
-        <v>-0.00613441619195024</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1580884854343764</v>
+      </c>
+      <c r="H85">
+        <v>-0.01617597444020319</v>
+      </c>
+      <c r="I85">
+        <v>-0.08516747788232071</v>
+      </c>
+      <c r="J85">
+        <v>0.06258678665164384</v>
+      </c>
+      <c r="K85">
+        <v>0.1581246564627151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.04295477191605468</v>
+        <v>0.0194262500762399</v>
       </c>
       <c r="C86">
-        <v>0.05023865066336582</v>
+        <v>0.07239304711492682</v>
       </c>
       <c r="D86">
-        <v>-0.05261803840713928</v>
+        <v>-0.01993018125908433</v>
       </c>
       <c r="E86">
-        <v>-0.03055967617681846</v>
+        <v>0.04743596468095338</v>
       </c>
       <c r="F86">
-        <v>-0.04835523403009486</v>
+        <v>-0.010455510630754</v>
       </c>
       <c r="G86">
-        <v>0.01408037798881365</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07272503461227076</v>
+      </c>
+      <c r="H86">
+        <v>0.0833448900968642</v>
+      </c>
+      <c r="I86">
+        <v>-0.1267860207606585</v>
+      </c>
+      <c r="J86">
+        <v>-0.1765061782051097</v>
+      </c>
+      <c r="K86">
+        <v>-0.01303037442887906</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.04884667178782166</v>
+        <v>0.02224055927320083</v>
       </c>
       <c r="C87">
-        <v>0.1428389661927764</v>
+        <v>0.1281245670805969</v>
       </c>
       <c r="D87">
-        <v>-0.05478451824881234</v>
+        <v>-0.004369602385120757</v>
       </c>
       <c r="E87">
-        <v>-0.09436651172081631</v>
+        <v>0.07891460420202398</v>
       </c>
       <c r="F87">
-        <v>-0.00585750953911361</v>
+        <v>-0.005043880960441253</v>
       </c>
       <c r="G87">
-        <v>-0.004308372430870332</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.006409039510069158</v>
+      </c>
+      <c r="H87">
+        <v>0.02004692225110899</v>
+      </c>
+      <c r="I87">
+        <v>0.1324657545045583</v>
+      </c>
+      <c r="J87">
+        <v>-0.07548948912690394</v>
+      </c>
+      <c r="K87">
+        <v>0.0631303979379159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.01546426642145862</v>
+        <v>0.03761664119861378</v>
       </c>
       <c r="C88">
-        <v>0.06294086104031543</v>
+        <v>0.07981044624676938</v>
       </c>
       <c r="D88">
-        <v>0.07002144413319153</v>
+        <v>-0.03794787691111142</v>
       </c>
       <c r="E88">
-        <v>0.01842750404603092</v>
+        <v>-0.01368378134382733</v>
       </c>
       <c r="F88">
-        <v>-0.03297057405726333</v>
+        <v>0.01518971967977045</v>
       </c>
       <c r="G88">
-        <v>0.01531670892512867</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02396983383298268</v>
+      </c>
+      <c r="H88">
+        <v>-0.003299771863347713</v>
+      </c>
+      <c r="I88">
+        <v>-0.02148638757444437</v>
+      </c>
+      <c r="J88">
+        <v>0.08807230979693163</v>
+      </c>
+      <c r="K88">
+        <v>0.08435951413442219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.394679217163556</v>
+        <v>0.3932804110373646</v>
       </c>
       <c r="C89">
-        <v>-0.1040620843668305</v>
+        <v>-0.1099511317584522</v>
       </c>
       <c r="D89">
-        <v>0.08108176523904083</v>
+        <v>0.01989580676103477</v>
       </c>
       <c r="E89">
-        <v>-0.1187397442008946</v>
+        <v>0.07292848503911606</v>
       </c>
       <c r="F89">
-        <v>0.111237595601201</v>
+        <v>0.01953739643133066</v>
       </c>
       <c r="G89">
-        <v>-0.003573586157716515</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02286447756759757</v>
+      </c>
+      <c r="H89">
+        <v>-0.01395848662431989</v>
+      </c>
+      <c r="I89">
+        <v>0.7445525473307624</v>
+      </c>
+      <c r="J89">
+        <v>0.1133508844684575</v>
+      </c>
+      <c r="K89">
+        <v>0.04953571373311638</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.2854517623646363</v>
+        <v>0.3081148952029781</v>
       </c>
       <c r="C90">
-        <v>-0.03952523043085132</v>
+        <v>-0.06378660860512948</v>
       </c>
       <c r="D90">
-        <v>-0.03661225536563504</v>
+        <v>0.003934788839782937</v>
       </c>
       <c r="E90">
-        <v>-0.02776534599424742</v>
+        <v>0.03072783402732788</v>
       </c>
       <c r="F90">
-        <v>0.01848981192892915</v>
+        <v>-0.02085610646593969</v>
       </c>
       <c r="G90">
-        <v>-0.04704966279488273</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01236868792678038</v>
+      </c>
+      <c r="H90">
+        <v>0.004757015204427573</v>
+      </c>
+      <c r="I90">
+        <v>-0.09590496592947864</v>
+      </c>
+      <c r="J90">
+        <v>-0.01450698049056797</v>
+      </c>
+      <c r="K90">
+        <v>-0.0003714593315658337</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.04775605762850467</v>
+        <v>0.05357625095195916</v>
       </c>
       <c r="C91">
-        <v>0.1212689119241835</v>
+        <v>0.1071217015911991</v>
       </c>
       <c r="D91">
-        <v>0.08189594298962863</v>
+        <v>-0.03458511847289487</v>
       </c>
       <c r="E91">
-        <v>0.09519998546042392</v>
+        <v>-0.08712794439252923</v>
       </c>
       <c r="F91">
-        <v>0.0459932705223331</v>
+        <v>-0.01734305998570263</v>
       </c>
       <c r="G91">
-        <v>-0.007384163503078993</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.08448505356392261</v>
+      </c>
+      <c r="H91">
+        <v>-0.01226976696770199</v>
+      </c>
+      <c r="I91">
+        <v>-0.009867228070152818</v>
+      </c>
+      <c r="J91">
+        <v>0.05001050892921902</v>
+      </c>
+      <c r="K91">
+        <v>0.05030802146046876</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3649539901912595</v>
+        <v>0.350518466969974</v>
       </c>
       <c r="C92">
-        <v>-0.1284366198860893</v>
+        <v>-0.1287388059927625</v>
       </c>
       <c r="D92">
-        <v>-0.04060747875212877</v>
+        <v>0.04204501561781213</v>
       </c>
       <c r="E92">
-        <v>-0.04562259018633638</v>
+        <v>0.08302303206969622</v>
       </c>
       <c r="F92">
-        <v>-0.009190581876528265</v>
+        <v>0.03576073843310362</v>
       </c>
       <c r="G92">
-        <v>0.1119629203106036</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02510763163573109</v>
+      </c>
+      <c r="H92">
+        <v>0.08177222706788602</v>
+      </c>
+      <c r="I92">
+        <v>-0.1651658435986579</v>
+      </c>
+      <c r="J92">
+        <v>-0.01137181053437045</v>
+      </c>
+      <c r="K92">
+        <v>-0.06487817137098664</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3170567593331357</v>
+        <v>0.3163336761557458</v>
       </c>
       <c r="C93">
-        <v>-0.09682600356484246</v>
+        <v>-0.1156942089351777</v>
       </c>
       <c r="D93">
-        <v>0.02243430712606213</v>
+        <v>-0.004231601171651098</v>
       </c>
       <c r="E93">
-        <v>-0.001693527217692714</v>
+        <v>0.003276179451335666</v>
       </c>
       <c r="F93">
-        <v>0.009890803323865516</v>
+        <v>-0.006756216203403883</v>
       </c>
       <c r="G93">
-        <v>-0.02490908020399358</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.0457374041332982</v>
+      </c>
+      <c r="H93">
+        <v>0.05614723569227643</v>
+      </c>
+      <c r="I93">
+        <v>-0.1142119291884789</v>
+      </c>
+      <c r="J93">
+        <v>-0.04882356968763463</v>
+      </c>
+      <c r="K93">
+        <v>0.03227579616509606</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.08457933480145778</v>
+        <v>0.07802075680381859</v>
       </c>
       <c r="C94">
-        <v>0.2233682442251888</v>
+        <v>0.1796754817596156</v>
       </c>
       <c r="D94">
-        <v>0.2372793290562286</v>
+        <v>-0.08958812966903695</v>
       </c>
       <c r="E94">
-        <v>0.2862871316290845</v>
+        <v>-0.2678167267418693</v>
       </c>
       <c r="F94">
-        <v>0.3665922283277588</v>
+        <v>0.06664536617003625</v>
       </c>
       <c r="G94">
-        <v>0.1428938109192617</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.4392818676349948</v>
+      </c>
+      <c r="H94">
+        <v>-0.1411561570662144</v>
+      </c>
+      <c r="I94">
+        <v>0.1399591749819863</v>
+      </c>
+      <c r="J94">
+        <v>0.2465738345353559</v>
+      </c>
+      <c r="K94">
+        <v>-0.5815069365401961</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02837112315647632</v>
+        <v>0.03838761178250249</v>
       </c>
       <c r="C95">
-        <v>0.07034589603157146</v>
+        <v>0.1176660636948546</v>
       </c>
       <c r="D95">
-        <v>0.04044126160286239</v>
+        <v>-0.03726567482819569</v>
       </c>
       <c r="E95">
-        <v>-0.0040387182316052</v>
+        <v>-0.02087007777082302</v>
       </c>
       <c r="F95">
-        <v>-0.1702397994952787</v>
+        <v>0.04082324323782814</v>
       </c>
       <c r="G95">
-        <v>-0.07215363853954634</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.1252143838533056</v>
+      </c>
+      <c r="H95">
+        <v>0.06225131337855434</v>
+      </c>
+      <c r="I95">
+        <v>0.1088035554049338</v>
+      </c>
+      <c r="J95">
+        <v>0.1727753114899885</v>
+      </c>
+      <c r="K95">
+        <v>0.3092314654694789</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.01035187403721864</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.017503600451487</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.01762464591013287</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.02408347781008706</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.03167368334812697</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.04235247603536705</v>
+      </c>
+      <c r="H97">
+        <v>0.005692848886525298</v>
+      </c>
+      <c r="I97">
+        <v>0.02022614476505959</v>
+      </c>
+      <c r="J97">
+        <v>-0.01145968210924435</v>
+      </c>
+      <c r="K97">
+        <v>-0.01100009990142795</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.09242737351343087</v>
+        <v>0.1345255562083578</v>
       </c>
       <c r="C98">
-        <v>0.149582395034172</v>
+        <v>0.1583125286881145</v>
       </c>
       <c r="D98">
-        <v>0.06348971616647518</v>
+        <v>-0.07588703275861666</v>
       </c>
       <c r="E98">
-        <v>-0.04065713504106505</v>
+        <v>-0.1433531757868478</v>
       </c>
       <c r="F98">
-        <v>-0.2573532364291452</v>
+        <v>-0.01751512954095966</v>
       </c>
       <c r="G98">
-        <v>-0.08450397194077423</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3416176689892991</v>
+      </c>
+      <c r="H98">
+        <v>-0.3449458972579329</v>
+      </c>
+      <c r="I98">
+        <v>-0.07357384765158928</v>
+      </c>
+      <c r="J98">
+        <v>-0.1185674159981401</v>
+      </c>
+      <c r="K98">
+        <v>-0.1917291142060099</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.004648387002357669</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.0109724207291795</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.001770791329635826</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.02034751888387263</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.009524901603878666</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.001586045558313698</v>
+      </c>
+      <c r="H99">
+        <v>0.07107063882713964</v>
+      </c>
+      <c r="I99">
+        <v>-0.005785032869862554</v>
+      </c>
+      <c r="J99">
+        <v>-0.02481583755474453</v>
+      </c>
+      <c r="K99">
+        <v>-0.1441932857191393</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01604636612534191</v>
+        <v>0.01297792711826918</v>
       </c>
       <c r="C101">
-        <v>0.05536841830109913</v>
+        <v>0.07585239414577651</v>
       </c>
       <c r="D101">
-        <v>-0.01911014177854841</v>
+        <v>-0.03774026999181174</v>
       </c>
       <c r="E101">
-        <v>-0.1078036557638468</v>
+        <v>0.06015065127399772</v>
       </c>
       <c r="F101">
-        <v>-0.0813730743473781</v>
+        <v>-0.06883328114509636</v>
       </c>
       <c r="G101">
-        <v>-0.03965468018929098</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1562936535199587</v>
+      </c>
+      <c r="H101">
+        <v>0.2851824877515506</v>
+      </c>
+      <c r="I101">
+        <v>0.03907527219444604</v>
+      </c>
+      <c r="J101">
+        <v>0.1842515047758196</v>
+      </c>
+      <c r="K101">
+        <v>-0.2585971958217441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.01858757185296766</v>
+        <v>0.00630012259091266</v>
       </c>
       <c r="C102">
-        <v>0.07198803437198889</v>
+        <v>0.03323112668032772</v>
       </c>
       <c r="D102">
-        <v>0.04484685244780627</v>
+        <v>-0.009026869081740456</v>
       </c>
       <c r="E102">
-        <v>0.05001178901956116</v>
+        <v>-0.03215745629041804</v>
       </c>
       <c r="F102">
-        <v>0.02333262571702237</v>
+        <v>-0.004532023230049307</v>
       </c>
       <c r="G102">
-        <v>-0.0168238907606343</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.03788326438762301</v>
+      </c>
+      <c r="H102">
+        <v>0.008929345660328795</v>
+      </c>
+      <c r="I102">
+        <v>0.02272986705656566</v>
+      </c>
+      <c r="J102">
+        <v>-0.00831412443968855</v>
+      </c>
+      <c r="K102">
+        <v>-0.01513703921207126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
